--- a/IStaffHRMGUIFramework/TestData/TestScriptData.xlsx
+++ b/IStaffHRMGUIFramework/TestData/TestScriptData.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Oopsconcept\IStaffHRMGUIFramework\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\whosc\git\repositoryForIstaff\IStaffHRMGUIFramework\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{042723B8-6A6B-42AE-9EF0-9432C99D1412}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D760359-0872-4162-A4C7-6D0DC265657E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7CE5E1FD-14E5-407C-BF41-028E902559CB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{7CE5E1FD-14E5-407C-BF41-028E902559CB}"/>
   </bookViews>
   <sheets>
     <sheet name="EmpDetails" sheetId="1" r:id="rId1"/>
-    <sheet name="PayrolDetails" sheetId="3" r:id="rId2"/>
-    <sheet name="Project" sheetId="2" r:id="rId3"/>
+    <sheet name="Resources" sheetId="4" r:id="rId2"/>
+    <sheet name="PayrolDetails" sheetId="3" r:id="rId3"/>
+    <sheet name="Project" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
   <si>
     <t>Name</t>
   </si>
@@ -126,13 +127,25 @@
   </si>
   <si>
     <t>1500</t>
+  </si>
+  <si>
+    <t>FileName</t>
+  </si>
+  <si>
+    <t>Path</t>
+  </si>
+  <si>
+    <t>Educational documents.xlsx</t>
+  </si>
+  <si>
+    <t>C:\\Users\\whosc\\eclipse\\ExcelInput_Chandrika\\Educational documents.xlsx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -165,6 +178,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF2A00FF"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -186,7 +205,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -194,6 +213,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -510,7 +532,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7B9F0A7-E8BB-4D98-9FF2-0DFCA17569E3}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
@@ -572,6 +594,40 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4EF8994-4B8D-4C4B-B093-80D4E0AB1A18}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="36.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A13EFD34-F9BE-4C06-A123-D4246DBA3E75}">
   <dimension ref="A1:P18"/>
   <sheetViews>
@@ -674,7 +730,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3873D6C-37C8-41C9-8384-75FC43E8031D}">
   <dimension ref="A1:C2"/>
   <sheetViews>

--- a/IStaffHRMGUIFramework/TestData/TestScriptData.xlsx
+++ b/IStaffHRMGUIFramework/TestData/TestScriptData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\whosc\git\repositoryForIstaff\IStaffHRMGUIFramework\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\whosc\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D760359-0872-4162-A4C7-6D0DC265657E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D479ADB-ECCD-49D2-B15E-E944FAD8EFB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{7CE5E1FD-14E5-407C-BF41-028E902559CB}"/>
   </bookViews>
@@ -597,9 +597,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4EF8994-4B8D-4C4B-B093-80D4E0AB1A18}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
